--- a/output/Func_annot_DAVID/FOW_BP_DAVID.xlsx
+++ b/output/Func_annot_DAVID/FOW_BP_DAVID.xlsx
@@ -1,69 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472BD35A-E479-1945-A92A-ADAEBE0775CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07E8599-C0CB-A04B-8532-69CFD12B4162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{CD4B86DB-B654-6D4A-85A6-625FE2606AD1}"/>
+    <workbookView xWindow="3080" yWindow="1520" windowWidth="28040" windowHeight="17440" xr2:uid="{5B4B2045-FE11-B94E-8D9E-1B469B13EC74}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FOW_BP_DAVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="FOW_BP_DAVID" localSheetId="0">Sheet1!$A$1:$M$22</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{EB5BB72B-A3CD-CA46-AB0B-E3D17F990EEB}" name="FOW_BP_DAVID" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/graceleuchtenberger/Desktop/FOW_BP_DAVID">
-      <textFields count="13">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Category</t>
   </si>
@@ -101,7 +58,7 @@
     <t>Benjamini</t>
   </si>
   <si>
-    <t>FDR</t>
+    <t>FDR\</t>
   </si>
   <si>
     <t>GOTERM_BP_DIRECT</t>
@@ -113,16 +70,16 @@
     <t>Q28EB4, Q5TJG6, O14929, Q9EQU5</t>
   </si>
   <si>
+    <t>0.28789994777910816\</t>
+  </si>
+  <si>
     <t>GO:0002244~hematopoietic progenitor cell differentiation</t>
   </si>
   <si>
     <t>Q8VE97, Q6AXM9, P57103, P15336</t>
   </si>
   <si>
-    <t>GO:0006338~chromatin remodeling</t>
-  </si>
-  <si>
-    <t>Q5TJG6, P35659, Q8VIJ6, Q24537, Q3UXZ9, P53568</t>
+    <t>0.867123452210646\</t>
   </si>
   <si>
     <t>GO:0006607~NLS-bearing protein import into nucleus</t>
@@ -131,12 +88,27 @@
     <t>Q14974, O35344, Q8BKC5</t>
   </si>
   <si>
+    <t>1.0\</t>
+  </si>
+  <si>
     <t>GO:0048025~negative regulation of mRNA splicing, via spliceosome</t>
   </si>
   <si>
     <t>Q8VE97, Q16629, Q8WXF0</t>
   </si>
   <si>
+    <t>GO:0007017~microtubule-based process</t>
+  </si>
+  <si>
+    <t>P06603, P32882, P68372</t>
+  </si>
+  <si>
+    <t>GO:0009408~response to heat</t>
+  </si>
+  <si>
+    <t>A5A6K9, Q9Z0J4, Q9QXE4</t>
+  </si>
+  <si>
     <t>GO:0006606~protein import into nucleus</t>
   </si>
   <si>
@@ -155,86 +127,62 @@
     <t>Q14974, Q8BKC5</t>
   </si>
   <si>
-    <t>GO:0009408~response to heat</t>
-  </si>
-  <si>
-    <t>A5A6K9, Q9Z0J4, Q9QXE4</t>
-  </si>
-  <si>
     <t>GO:0000278~mitotic cell cycle</t>
   </si>
   <si>
     <t>P06603, Q14203, P32882, P68372</t>
   </si>
   <si>
+    <t>GO:0015811~L-cystine transport</t>
+  </si>
+  <si>
+    <t>Q9N1R6</t>
+  </si>
+  <si>
+    <t>GO:0006479~protein methylation</t>
+  </si>
+  <si>
+    <t>P15170, P62325</t>
+  </si>
+  <si>
     <t>GO:2000330~positive regulation of T-helper 17 cell lineage commitment</t>
   </si>
   <si>
     <t>Q5TJG6</t>
   </si>
   <si>
+    <t>GO:0038203~TORC2 signaling</t>
+  </si>
+  <si>
+    <t>Q9D5V6, Q9CYP7</t>
+  </si>
+  <si>
     <t>GO:1990253~cellular response to leucine starvation</t>
   </si>
   <si>
     <t>P15336, Q9CYP7</t>
   </si>
   <si>
-    <t>GO:0015811~L-cystine transport</t>
-  </si>
-  <si>
-    <t>Q9N1R6</t>
-  </si>
-  <si>
-    <t>GO:0006479~protein methylation</t>
-  </si>
-  <si>
-    <t>P15170, P62325</t>
-  </si>
-  <si>
-    <t>GO:0000122~negative regulation of transcription by RNA polymerase II</t>
-  </si>
-  <si>
-    <t>Q8VIJ6, O08992, Q9VGZ5, Q24537, Q3UXZ9, P56518, P15336, Q9NZN8</t>
-  </si>
-  <si>
-    <t>GO:0038203~TORC2 signaling</t>
-  </si>
-  <si>
-    <t>Q9D5V6, Q9CYP7</t>
-  </si>
-  <si>
     <t>GO:0090063~positive regulation of microtubule nucleation</t>
   </si>
   <si>
     <t>Q14203, Q14008</t>
   </si>
   <si>
-    <t>GO:0018401~peptidyl-proline hydroxylation to 4-hydroxy-L-proline</t>
-  </si>
-  <si>
-    <t>O15460, P59722</t>
-  </si>
-  <si>
-    <t>GO:0140588~chromatin looping</t>
-  </si>
-  <si>
     <t>GO:0061014~positive regulation of mRNA catabolic process</t>
   </si>
   <si>
     <t>D2XV59, P23128</t>
   </si>
   <si>
-    <t>GO:0097192~extrinsic apoptotic signaling pathway in absence of ligand</t>
-  </si>
-  <si>
-    <t>Q91827, O08605</t>
+    <t>1.0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,16 +190,322 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -259,16 +513,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,10 +724,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FOW_BP_DAVID" connectionId="1" xr16:uid="{9D96095D-EE37-4142-BF9C-5D6F2C85BAAB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,23 +1042,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB82D12-C7EA-5D4A-9A59-12D3B2723DD6}">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920E7D04-F923-0F44-9293-375BF1C0DF76}">
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -677,31 +1109,31 @@
         <v>4.5454545454545396</v>
       </c>
       <c r="E2" s="1">
-        <v>6.4329249725218003E-4</v>
+        <v>5.9483460284939695E-4</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
       <c r="I2">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J2">
-        <v>12.0881226053639</v>
+        <v>12.3357843137254</v>
       </c>
       <c r="K2">
-        <v>0.27044079379903802</v>
+        <v>0.25022761724606402</v>
       </c>
       <c r="L2">
-        <v>0.31521332365356802</v>
-      </c>
-      <c r="M2">
-        <v>0.31521332365356802</v>
+        <v>0.28789994777910799</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -709,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -718,31 +1150,31 @@
         <v>3.63636363636363</v>
       </c>
       <c r="E3">
-        <v>3.7983559839089901E-3</v>
+        <v>3.5831547612010101E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>19</v>
       </c>
       <c r="I3">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J3">
-        <v>12.215366001209899</v>
+        <v>12.465634674922599</v>
       </c>
       <c r="K3">
-        <v>0.84506322492122099</v>
+        <v>0.82401585688636303</v>
       </c>
       <c r="L3">
-        <v>0.86771931857908502</v>
-      </c>
-      <c r="M3">
-        <v>0.86771931857908502</v>
+        <v>0.86712345221064602</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -750,40 +1182,40 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>6.3636363636363598</v>
+        <v>2.72727272727272</v>
       </c>
       <c r="E4">
-        <v>5.3125672566066403E-3</v>
+        <v>7.2204913113394801E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J4">
-        <v>4.2753781004234703</v>
+        <v>22.204411764705799</v>
       </c>
       <c r="K4">
-        <v>0.92647260856151503</v>
+        <v>0.97002512200116497</v>
       </c>
       <c r="L4">
-        <v>0.86771931857908502</v>
-      </c>
-      <c r="M4">
-        <v>0.86771931857908502</v>
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -791,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -800,31 +1232,31 @@
         <v>2.72727272727272</v>
       </c>
       <c r="E5">
-        <v>7.5150988138760104E-3</v>
+        <v>1.3729690544244401E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J5">
-        <v>21.7586206896551</v>
+        <v>16.1486631016042</v>
       </c>
       <c r="K5">
-        <v>0.97518494935731703</v>
+        <v>0.99875822091806199</v>
       </c>
       <c r="L5">
-        <v>0.92059960469981095</v>
-      </c>
-      <c r="M5">
-        <v>0.92059960469981095</v>
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -832,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -841,31 +1273,31 @@
         <v>2.72727272727272</v>
       </c>
       <c r="E6">
-        <v>1.4280024574558001E-2</v>
+        <v>2.1992910779159599E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J6">
-        <v>15.8244514106583</v>
+        <v>12.6882352941176</v>
       </c>
       <c r="K6">
-        <v>0.99913055283952601</v>
+        <v>0.99997883933186804</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>1</v>
+      <c r="M6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -873,40 +1305,40 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>3.63636363636363</v>
+        <v>2.72727272727272</v>
       </c>
       <c r="E7">
-        <v>3.1964189623618702E-2</v>
+        <v>3.1825695198805203E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I7">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J7">
-        <v>5.6607793664143502</v>
+        <v>10.4491349480968</v>
       </c>
       <c r="K7">
-        <v>0.99999987787700095</v>
+        <v>0.99999984095524996</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>1</v>
+      <c r="M7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -914,40 +1346,40 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>1.8181818181818099</v>
+        <v>3.63636363636363</v>
       </c>
       <c r="E8">
-        <v>3.3785977579316201E-2</v>
+        <v>3.2270289091021503E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J8">
-        <v>58.022988505747101</v>
+        <v>5.6392156862745004</v>
       </c>
       <c r="K8">
-        <v>0.999999951478452</v>
+        <v>0.99999987265783996</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>1</v>
+      <c r="M8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -955,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -964,31 +1396,31 @@
         <v>1.8181818181818099</v>
       </c>
       <c r="E9">
-        <v>3.3785977579316201E-2</v>
+        <v>3.3104404412396801E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J9">
-        <v>58.022988505747101</v>
+        <v>59.211764705882302</v>
       </c>
       <c r="K9">
-        <v>0.999999951478452</v>
+        <v>0.99999991610855798</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -996,40 +1428,40 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2.72727272727272</v>
+        <v>1.8181818181818099</v>
       </c>
       <c r="E10">
-        <v>4.0664183047253097E-2</v>
+        <v>3.3104404412396801E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J10">
-        <v>9.16152450090744</v>
+        <v>59.211764705882302</v>
       </c>
       <c r="K10">
-        <v>0.99999999853572297</v>
+        <v>0.99999991610855798</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="M10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1037,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1046,31 +1478,31 @@
         <v>3.63636363636363</v>
       </c>
       <c r="E11">
-        <v>5.0173831965433201E-2</v>
+        <v>3.6360020120901997E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J11">
-        <v>4.7365704902650698</v>
+        <v>5.3828877005347504</v>
       </c>
       <c r="K11">
-        <v>0.999999999988892</v>
+        <v>0.99999998360286402</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1078,7 +1510,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1087,31 +1519,31 @@
         <v>1.8181818181818099</v>
       </c>
       <c r="E12">
-        <v>5.02533588570842E-2</v>
+        <v>4.9248159139310903E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J12">
-        <v>38.681992337164701</v>
+        <v>39.474509803921499</v>
       </c>
       <c r="K12">
-        <v>0.99999999998933797</v>
+        <v>0.99999999997576094</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="M12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1119,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1128,31 +1560,31 @@
         <v>1.8181818181818099</v>
       </c>
       <c r="E13">
-        <v>5.02533588570842E-2</v>
+        <v>4.9248159139310903E-2</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J13">
-        <v>38.681992337164701</v>
+        <v>39.474509803921499</v>
       </c>
       <c r="K13">
-        <v>0.99999999998933797</v>
+        <v>0.99999999997576094</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="M13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1160,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1169,31 +1601,31 @@
         <v>1.8181818181818099</v>
       </c>
       <c r="E14">
-        <v>5.02533588570842E-2</v>
+        <v>4.9248159139310903E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G14">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J14">
-        <v>38.681992337164701</v>
+        <v>39.474509803921499</v>
       </c>
       <c r="K14">
-        <v>0.99999999998933797</v>
+        <v>0.99999999997576094</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="M14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1201,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1210,31 +1642,31 @@
         <v>1.8181818181818099</v>
       </c>
       <c r="E15">
-        <v>5.02533588570842E-2</v>
+        <v>6.5125525865306705E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G15">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J15">
-        <v>38.681992337164701</v>
+        <v>29.605882352941101</v>
       </c>
       <c r="K15">
-        <v>0.99999999998933797</v>
+        <v>0.99999999999999301</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="M15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1242,40 +1674,40 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>7.2727272727272698</v>
+        <v>1.8181818181818099</v>
       </c>
       <c r="E16">
-        <v>6.4253383392475993E-2</v>
+        <v>6.5125525865306705E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G16">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J16">
-        <v>2.2209756365836202</v>
+        <v>29.605882352941101</v>
       </c>
       <c r="K16">
-        <v>0.99999999999999201</v>
+        <v>0.99999999999999301</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="M16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1283,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1292,31 +1724,31 @@
         <v>1.8181818181818099</v>
       </c>
       <c r="E17">
-        <v>6.6443291688563597E-2</v>
+        <v>6.5125525865306705E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G17">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J17">
-        <v>29.011494252873501</v>
+        <v>29.605882352941101</v>
       </c>
       <c r="K17">
-        <v>0.999999999999997</v>
+        <v>0.99999999999999301</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1324,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1333,198 +1765,35 @@
         <v>1.8181818181818099</v>
       </c>
       <c r="E18">
-        <v>6.6443291688563597E-2</v>
+        <v>9.6098399624075098E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>5048</v>
+        <v>5033</v>
       </c>
       <c r="J18">
-        <v>29.011494252873501</v>
+        <v>19.7372549019607</v>
       </c>
       <c r="K18">
-        <v>0.999999999999997</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1.8181818181818099</v>
-      </c>
-      <c r="E19">
-        <v>8.2360396549234605E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19">
-        <v>87</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>5048</v>
-      </c>
-      <c r="J19">
-        <v>23.2091954022988</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1.8181818181818099</v>
-      </c>
-      <c r="E20">
-        <v>8.2360396549234605E-2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20">
-        <v>87</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5048</v>
-      </c>
-      <c r="J20">
-        <v>23.2091954022988</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="M18" t="s">
         <v>51</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1.8181818181818099</v>
-      </c>
-      <c r="E21">
-        <v>9.8009217864875597E-2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21">
-        <v>87</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21">
-        <v>5048</v>
-      </c>
-      <c r="J21">
-        <v>19.340996168582301</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1.8181818181818099</v>
-      </c>
-      <c r="E22">
-        <v>9.8009217864875597E-2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22">
-        <v>87</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>5048</v>
-      </c>
-      <c r="J22">
-        <v>19.340996168582301</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>